--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/162.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/162.xlsx
@@ -479,13 +479,13 @@
         <v>-6.530344111342662</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.13184749350105</v>
+        <v>-14.01854670470875</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.128441388070304</v>
+        <v>-1.208919773638394</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.54912891191375</v>
+        <v>-11.25717055854326</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.384799807582525</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.41307015854133</v>
+        <v>-14.30089530779342</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9706136773132958</v>
+        <v>-1.057049060674371</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.46738057297001</v>
+        <v>-11.18283246300794</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.300722687186578</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.88841239781588</v>
+        <v>-14.796831739438</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8270434843509278</v>
+        <v>-0.9050736092876152</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.0969731409719</v>
+        <v>-10.81487329164123</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.285519460311208</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.49473003471905</v>
+        <v>-15.39909076246024</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7545644958191323</v>
+        <v>-0.8477555074465385</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.06467442986136</v>
+        <v>-10.77939315094015</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.301068643417791</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.07716731123892</v>
+        <v>-15.99344203456608</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5666899500403633</v>
+        <v>-0.6593834541597838</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.6675194231576</v>
+        <v>-10.3782580841725</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.310331280113215</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.77298393036813</v>
+        <v>-16.6991433423408</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4792333670576331</v>
+        <v>-0.5760902234807226</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.52541556811351</v>
+        <v>-10.23432130673057</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.267970854637503</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.42648622671289</v>
+        <v>-17.36174478916056</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3315783756086465</v>
+        <v>-0.4360418599827788</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.09888143383291</v>
+        <v>-9.794642500396881</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.134570856179482</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.20457487689951</v>
+        <v>-18.1407499005461</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3670585163097241</v>
+        <v>-0.4671229869290365</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.932556818531625</v>
+        <v>-9.626170747429551</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.881604725161147</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.76823779114435</v>
+        <v>-18.72475825340697</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1871309983558828</v>
+        <v>-0.2924323901118855</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.633515529323759</v>
+        <v>-9.331960517970282</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.499154964218623</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.40998319953723</v>
+        <v>-19.37391390520828</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03858030263547464</v>
+        <v>-0.07767934659905285</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.277313245908918</v>
+        <v>-8.984438431339505</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.998460396737164</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.01150905360034</v>
+        <v>-19.97669662034419</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1554999946902726</v>
+        <v>-0.2689840757223542</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.752102425110236</v>
+        <v>-8.466127254138412</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.411955879848353</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.77747423135552</v>
+        <v>-20.76376659028023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05748558793892709</v>
+        <v>-0.0519922484235863</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.125138226625657</v>
+        <v>-7.839084501836784</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.794776756443719</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.55778857302523</v>
+        <v>-21.53930224141272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2858808110128384</v>
+        <v>0.1741510985615481</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.832211042844878</v>
+        <v>-7.544560057109314</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.210785452934037</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.42291485250365</v>
+        <v>-22.39471403218257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4578874857474354</v>
+        <v>0.3361814385307499</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.151123264412604</v>
+        <v>-6.883136917545314</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.720794067330325</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.47671430823418</v>
+        <v>-23.42738251112656</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7320926764645462</v>
+        <v>0.6138822741066016</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.777612956641001</v>
+        <v>-6.493326692735762</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.375295655871328</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.14892550533977</v>
+        <v>-24.11419162590067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8666029958604399</v>
+        <v>0.7511288847964159</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.620426768723238</v>
+        <v>-6.327630507970876</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.20600387745555</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.05273953971549</v>
+        <v>-25.02571702665016</v>
       </c>
       <c r="F18" t="n">
-        <v>1.171954775038017</v>
+        <v>1.04037713147867</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.081573768363477</v>
+        <v>-5.795925904962697</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.225292710912448</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.85362188914955</v>
+        <v>-25.83602583413027</v>
       </c>
       <c r="F19" t="n">
-        <v>1.268785446855423</v>
+        <v>1.138556310488774</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.977516145377438</v>
+        <v>-5.675123226642091</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.42175366366923</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.60810511731254</v>
+        <v>-26.58998537017959</v>
       </c>
       <c r="F20" t="n">
-        <v>1.411897409218331</v>
+        <v>1.28537339455589</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.666731060520545</v>
+        <v>-5.359480897430917</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.766660045774929</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.25064915617877</v>
+        <v>-27.22293275106284</v>
       </c>
       <c r="F21" t="n">
-        <v>1.665364392234147</v>
+        <v>1.531377764951923</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.410684893844908</v>
+        <v>-5.098970255486252</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.219835012958862</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.83008829534788</v>
+        <v>-27.81916931477789</v>
       </c>
       <c r="F22" t="n">
-        <v>1.782697610301696</v>
+        <v>1.652245904786738</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.739822203932023</v>
+        <v>-4.467489212521278</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.737409463072308</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.23774332893071</v>
+        <v>-28.22571150261916</v>
       </c>
       <c r="F23" t="n">
-        <v>1.968529756837156</v>
+        <v>1.83058925409673</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.745386432639756</v>
+        <v>-4.458953031068473</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.273859292064074</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.53890557119894</v>
+        <v>-28.53779272545739</v>
       </c>
       <c r="F24" t="n">
-        <v>1.849573093217233</v>
+        <v>1.724567785684433</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.45612509365466</v>
+        <v>-4.192878160416074</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.783724652668444</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.82845494084655</v>
+        <v>-28.82625543396914</v>
       </c>
       <c r="F25" t="n">
-        <v>2.146715998513048</v>
+        <v>2.026973796722621</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.183098210193305</v>
+        <v>-3.950919311598135</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.228440289746196</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.85157594766504</v>
+        <v>-28.85792571454327</v>
       </c>
       <c r="F26" t="n">
-        <v>2.048628465622836</v>
+        <v>1.94072170560133</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.296543014316861</v>
+        <v>-4.071093559382338</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.576706891814315</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.00517484460417</v>
+        <v>-28.99615424794622</v>
       </c>
       <c r="F27" t="n">
-        <v>1.996075962016148</v>
+        <v>1.876124283380254</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.984998575895148</v>
+        <v>-3.773152023613178</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.808792582540541</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.8159517916327</v>
+        <v>-28.8153233610963</v>
       </c>
       <c r="F28" t="n">
-        <v>2.199530348176571</v>
+        <v>2.081437776544202</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.038074771615505</v>
+        <v>-3.844334874163643</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.915686212678333</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.81889755977209</v>
+        <v>-28.8270278798368</v>
       </c>
       <c r="F29" t="n">
-        <v>2.057950185246145</v>
+        <v>1.953290316329387</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.971421857848278</v>
+        <v>-3.790001817370479</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.900352825029206</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.62823435348803</v>
+        <v>-28.62980542982904</v>
       </c>
       <c r="F30" t="n">
-        <v>2.115503948538373</v>
+        <v>2.006994942586147</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.95019923494184</v>
+        <v>-3.771240547398286</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.777258485678721</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.2117289231842</v>
+        <v>-28.22290974981103</v>
       </c>
       <c r="F31" t="n">
-        <v>1.997777961385572</v>
+        <v>1.892856246411979</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.247603986294489</v>
+        <v>-4.081698324684137</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.568417922452165</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.10407091691669</v>
+        <v>-28.13216699881503</v>
       </c>
       <c r="F32" t="n">
-        <v>1.985078427629098</v>
+        <v>1.869394839719606</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.478800962176529</v>
+        <v>-4.299161474885207</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.300364407333</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.5272764229216</v>
+        <v>-27.55367050545052</v>
       </c>
       <c r="F33" t="n">
-        <v>1.916160545470252</v>
+        <v>1.81139593813076</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.759094073715043</v>
+        <v>-4.603308762201345</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.000262648511036</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.95362408160853</v>
+        <v>-26.97423136628141</v>
       </c>
       <c r="F34" t="n">
-        <v>1.990917594696508</v>
+        <v>1.887671694486656</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.658047680382602</v>
+        <v>-4.510680719596133</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.695486371580582</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.72625005815628</v>
+        <v>-26.73317588635955</v>
       </c>
       <c r="F35" t="n">
-        <v>1.789819823047595</v>
+        <v>1.684322046748967</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.964119536216473</v>
+        <v>-4.812929623000221</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.408609895553292</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.84338370832732</v>
+        <v>-25.84576650744452</v>
       </c>
       <c r="F36" t="n">
-        <v>1.712287205618894</v>
+        <v>1.608988936197675</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.175612596321717</v>
+        <v>-5.008869027329493</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.160710827571183</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.34256384772278</v>
+        <v>-25.32301703958008</v>
       </c>
       <c r="F37" t="n">
-        <v>1.598881678403862</v>
+        <v>1.496421316364514</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.418448629430051</v>
+        <v>-5.239647049520598</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.968202116784841</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.88180643381391</v>
+        <v>-24.88866680050297</v>
       </c>
       <c r="F38" t="n">
-        <v>1.586417806098539</v>
+        <v>1.489168180590198</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.576302524792743</v>
+        <v>-5.384421734344405</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.841692383474253</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.40776033252069</v>
+        <v>-24.3962783829285</v>
       </c>
       <c r="F39" t="n">
-        <v>1.485554705005881</v>
+        <v>1.398124306628835</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.70067940178914</v>
+        <v>-5.512687025284795</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.786643710242921</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.94286575091384</v>
+        <v>-23.93497109230028</v>
       </c>
       <c r="F40" t="n">
-        <v>1.480553445320342</v>
+        <v>1.372280100819268</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.813967098278596</v>
+        <v>-5.616364971488425</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.800774814164164</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.14136806324621</v>
+        <v>-23.13584311144701</v>
       </c>
       <c r="F41" t="n">
-        <v>1.566884090258684</v>
+        <v>1.476992338947393</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.928996071046001</v>
+        <v>-5.722137686146729</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.875548623388921</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.73824296644662</v>
+        <v>-22.71997920398242</v>
       </c>
       <c r="F42" t="n">
-        <v>1.68722853797983</v>
+        <v>1.587569928748611</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.995295492636502</v>
+        <v>-5.788135984771871</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.994056308964046</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.91218411864792</v>
+        <v>-21.87895585403562</v>
       </c>
       <c r="F43" t="n">
-        <v>1.874186622559678</v>
+        <v>1.78416394821997</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.981417651624272</v>
+        <v>-5.757918949813167</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.135942983901193</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.64824329335872</v>
+        <v>-21.60215838735585</v>
       </c>
       <c r="F44" t="n">
-        <v>1.839910973720039</v>
+        <v>1.751904514017957</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.169514766551351</v>
+        <v>-5.951724308779237</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.278658815954489</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.10222880334453</v>
+        <v>-21.05791135822529</v>
       </c>
       <c r="F45" t="n">
-        <v>1.904822611209317</v>
+        <v>1.80623757081112</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.278442726194512</v>
+        <v>-6.068533834733118</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.401182341587625</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.60681606381362</v>
+        <v>-20.54113198045668</v>
       </c>
       <c r="F46" t="n">
-        <v>2.063710798496504</v>
+        <v>1.970650709897516</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.213570365613759</v>
+        <v>-5.992991247336358</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.485061436819603</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.07103975462167</v>
+        <v>-19.9916349378866</v>
       </c>
       <c r="F47" t="n">
-        <v>1.944832688693632</v>
+        <v>1.85986364325083</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.595538301021117</v>
+        <v>-6.371882491575911</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.518136842795306</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.61307100121809</v>
+        <v>-19.52224969640503</v>
       </c>
       <c r="F48" t="n">
-        <v>1.978322799362767</v>
+        <v>1.884032034296656</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.630952980207986</v>
+        <v>-6.397805251202528</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.499023303347949</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.93515156007351</v>
+        <v>-18.85839138851247</v>
       </c>
       <c r="F49" t="n">
-        <v>1.997620853751471</v>
+        <v>1.906995933481044</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.082689797458902</v>
+        <v>-6.85587874302884</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.433699860364999</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.38236834949015</v>
+        <v>-18.29121973710606</v>
       </c>
       <c r="F50" t="n">
-        <v>1.982852736146004</v>
+        <v>1.89817172136572</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.075135538719226</v>
+        <v>-6.842930455518372</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.336761642178736</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.54146283026893</v>
+        <v>-17.44399063561228</v>
       </c>
       <c r="F51" t="n">
-        <v>2.017337861831111</v>
+        <v>1.935170569196438</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.450806076459714</v>
+        <v>-7.203466291173825</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.227335337829151</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.20584164692128</v>
+        <v>-17.09200407371247</v>
       </c>
       <c r="F52" t="n">
-        <v>1.911892454743849</v>
+        <v>1.822943349237162</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.368416214676732</v>
+        <v>-7.11794736901167</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.127768435159085</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.65689448107055</v>
+        <v>-16.51382179561617</v>
       </c>
       <c r="F53" t="n">
-        <v>2.024617182211111</v>
+        <v>1.95771551468989</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.473442668073059</v>
+        <v>-7.230855388718716</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.061652633461035</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.31193848579675</v>
+        <v>-16.18067505750561</v>
       </c>
       <c r="F54" t="n">
-        <v>1.766044201087021</v>
+        <v>1.695607611798534</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.867324599066388</v>
+        <v>-7.608044633588844</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.050761870256363</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.72876804031775</v>
+        <v>-15.58035369530394</v>
       </c>
       <c r="F55" t="n">
-        <v>1.844493279714643</v>
+        <v>1.76428983250623</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.025309417457496</v>
+        <v>-7.769315619993226</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.111981796357835</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.3394291384105</v>
+        <v>-15.18850107125108</v>
       </c>
       <c r="F56" t="n">
-        <v>1.689140014194722</v>
+        <v>1.633576280934436</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.242851121475615</v>
+        <v>-7.997016951016525</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.251567559029521</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.6754660920952</v>
+        <v>-14.50639209319715</v>
       </c>
       <c r="F57" t="n">
-        <v>1.59765100193674</v>
+        <v>1.541275545900268</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.561701064883012</v>
+        <v>-8.32837004363777</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.467905819191111</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.4630434784882</v>
+        <v>-14.2878684664659</v>
       </c>
       <c r="F58" t="n">
-        <v>1.475814031691637</v>
+        <v>1.421454790292791</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.59786200533186</v>
+        <v>-8.362828984717193</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.748930782389222</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.96316626368825</v>
+        <v>-13.79405298788168</v>
       </c>
       <c r="F59" t="n">
-        <v>1.531849087854225</v>
+        <v>1.469896310807177</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.771727787069983</v>
+        <v>-8.541067595604453</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.081822952497238</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.82830245211563</v>
+        <v>-13.66170289845467</v>
       </c>
       <c r="F60" t="n">
-        <v>1.397967198994734</v>
+        <v>1.348661586492794</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.682254989449627</v>
+        <v>-8.447575461011686</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.453324606166304</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.52288521142385</v>
+        <v>-13.34784112242997</v>
       </c>
       <c r="F61" t="n">
-        <v>1.31980615102963</v>
+        <v>1.276758659286034</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.90278173851566</v>
+        <v>-8.69533419998851</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.848385176783587</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.208787773948</v>
+        <v>-13.01917195189128</v>
       </c>
       <c r="F62" t="n">
-        <v>1.321377227370637</v>
+        <v>1.280489965595926</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.202307442928669</v>
+        <v>-8.986074969194721</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.253600375320853</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.77473865783625</v>
+        <v>-12.59494206291083</v>
       </c>
       <c r="F63" t="n">
-        <v>1.27505665991661</v>
+        <v>1.235478628426072</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.185261264628743</v>
+        <v>-8.960309317202205</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.654143658215181</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.51552415387292</v>
+        <v>-12.31604982777638</v>
       </c>
       <c r="F64" t="n">
-        <v>1.214845159147512</v>
+        <v>1.17516238923424</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.373201271921719</v>
+        <v>-9.146076002223456</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.039317514107924</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.2685509530666</v>
+        <v>-12.0695610421752</v>
       </c>
       <c r="F65" t="n">
-        <v>1.212148144762116</v>
+        <v>1.181564525323844</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.548821422240634</v>
+        <v>-9.32997048793834</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.401052754922492</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.05377172494808</v>
+        <v>-11.8457481250959</v>
       </c>
       <c r="F66" t="n">
-        <v>1.016378940369786</v>
+        <v>0.9867117821304348</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.559583295176532</v>
+        <v>-9.333413763585714</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.737542198306021</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.86644705588867</v>
+        <v>-11.65740225641482</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9842242445905068</v>
+        <v>0.9538501019977024</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.62449493266581</v>
+        <v>-9.409977550604127</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.049590248889476</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.7400408719518</v>
+        <v>-11.51542932439915</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8989671684851867</v>
+        <v>0.8759247154837488</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.552173051768115</v>
+        <v>-9.333282840557297</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.340507318147729</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.56584778264263</v>
+        <v>-11.34354048039013</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6851698630798</v>
+        <v>0.6494409686247296</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.505629915165779</v>
+        <v>-9.288075118844816</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.613519154976595</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.45604263870908</v>
+        <v>-11.23135253733938</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8229532581861251</v>
+        <v>0.7797355665055874</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.440967031430494</v>
+        <v>-9.22051883618151</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.868599789017333</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.28778036258722</v>
+        <v>-11.06966259724406</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7304168617008052</v>
+        <v>0.6883382003674977</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.088142562148818</v>
+        <v>-8.88244939220246</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.108678869694398</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.22420413998779</v>
+        <v>-11.01178152638079</v>
       </c>
       <c r="F72" t="n">
-        <v>0.758342743662207</v>
+        <v>0.714941759741885</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.942320493097673</v>
+        <v>-8.727017572865488</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.333118063878446</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.22416486307927</v>
+        <v>-11.00975221944032</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5897662522721421</v>
+        <v>0.5386931788865688</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.900137093341632</v>
+        <v>-8.687714479734627</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.545057812666288</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.34339646505887</v>
+        <v>-11.13778184892956</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6906686302733249</v>
+        <v>0.6425020481186147</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.673456961939987</v>
+        <v>-8.464464531677514</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.748012406189066</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.40198452027559</v>
+        <v>-11.19529633531326</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5153757875254545</v>
+        <v>0.4547322407625795</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.501541933325282</v>
+        <v>-8.291489026532629</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.944018339322666</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.77241813687939</v>
+        <v>-11.56592633645968</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6232956398498026</v>
+        <v>0.5648646922671792</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.249488919016372</v>
+        <v>-8.051009607935804</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.12764147869409</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.15344342648214</v>
+        <v>-11.93992105943643</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5273683369284756</v>
+        <v>0.47028589653855</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.067872493995948</v>
+        <v>-7.879408794589301</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.28733830951745</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.72043178564877</v>
+        <v>-12.49151287046119</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4992722550301315</v>
+        <v>0.4211897608820773</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.826110029720634</v>
+        <v>-7.624724227409203</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.41047795469993</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.13255129450063</v>
+        <v>-12.92016795780215</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3908025259864311</v>
+        <v>0.3245292890016137</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.786126136842002</v>
+        <v>-7.583260904309457</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.48469241779759</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.64414612034391</v>
+        <v>-13.42875155399184</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6246572393453421</v>
+        <v>0.539112132577504</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.489467646751331</v>
+        <v>-7.275172833837959</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.50427871648902</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.50192761792812</v>
+        <v>-14.2814663303763</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4549809945165723</v>
+        <v>0.381965221568266</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.464068579238383</v>
+        <v>-7.247862290110119</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.46431556985778</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.16608704878604</v>
+        <v>-14.95765758754577</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5445061613482951</v>
+        <v>0.4587515777349894</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.309815067157166</v>
+        <v>-7.094001547114154</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.36848501157735</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.9274306436381</v>
+        <v>-15.70861898624433</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4062383510368261</v>
+        <v>0.3131913547406789</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.053389223699119</v>
+        <v>-6.829157352928877</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.2239009700005</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.01864790089028</v>
+        <v>-16.79848773630382</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4126143025207467</v>
+        <v>0.3109787555604272</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.848651791860207</v>
+        <v>-6.626148105065073</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.04065302793912</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.83640622868733</v>
+        <v>-17.61038071242778</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4645907448023992</v>
+        <v>0.3558591697018642</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.596559500642772</v>
+        <v>-6.363883094539616</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.83312196700934</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.85946495734549</v>
+        <v>-18.62585899774058</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4237034830276887</v>
+        <v>0.3048646501333411</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.294192766513108</v>
+        <v>-6.073194694544772</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.616328420361715</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.88214400922124</v>
+        <v>-19.65003057214028</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4585159162838383</v>
+        <v>0.3400698524747425</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.90046794315388</v>
+        <v>-5.670920597429896</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.407364886390731</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.19727892197547</v>
+        <v>-20.96197096300113</v>
       </c>
       <c r="F88" t="n">
-        <v>0.572327304886963</v>
+        <v>0.4548238868824716</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.718236179899895</v>
+        <v>-5.475216854551776</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.220331916085867</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.75669002115062</v>
+        <v>-22.50813265170045</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3899515263017189</v>
+        <v>0.2693452325237383</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.365804479703471</v>
+        <v>-5.125966583945891</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.070560754583779</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.26858915331314</v>
+        <v>-24.02850250380157</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2064759942777697</v>
+        <v>0.08437717797583243</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.125953491643049</v>
+        <v>-4.882750874055146</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.967995122858694</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.69579417839254</v>
+        <v>-25.46430917184799</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1659553169826276</v>
+        <v>0.04635713052345993</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.153421143004991</v>
+        <v>-4.913452324218993</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.922811375858016</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.39857908598744</v>
+        <v>-27.15359591521306</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004998545846447279</v>
+        <v>-0.1185142391623965</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.859276375059931</v>
+        <v>-4.633237766497531</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.93948313236603</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.35096874725984</v>
+        <v>-29.11639395724463</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02444061556641049</v>
+        <v>-0.1059849053428646</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.890828824908491</v>
+        <v>-4.654512758615335</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.015501226616784</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.49495116831806</v>
+        <v>-31.23730774069573</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02692815310633844</v>
+        <v>-0.09538014004106649</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.95363260164025</v>
+        <v>-4.714331490299181</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.14717073574176</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.67102282364134</v>
+        <v>-33.41483264163445</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3451943705640416</v>
+        <v>-0.4811841201810503</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.106328129683302</v>
+        <v>-4.869121786796909</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.323440623176714</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.76429875579356</v>
+        <v>-35.51940723113908</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4615587582213029</v>
+        <v>-0.57993936051619</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.234383943778225</v>
+        <v>-5.017928900895967</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.526088831531453</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.05843679814353</v>
+        <v>-37.81359764270042</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.7552583878697438</v>
+        <v>-0.8783914960961775</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.42883082558354</v>
+        <v>-5.195499804338298</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.739695943899903</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.50626538355253</v>
+        <v>-40.26460765769995</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.044572096066206</v>
+        <v>-1.159758176467712</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.69142314368004</v>
+        <v>-5.473541039788034</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.945653838306134</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.87967731960916</v>
+        <v>-42.63784939381964</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.9299489846868947</v>
+        <v>-1.038222329187969</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.060167853217255</v>
+        <v>-5.840295719293307</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.14917617471089</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.42364268478495</v>
+        <v>-45.17005787104356</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.069683132916637</v>
+        <v>-1.188836181079186</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.249207613948937</v>
+        <v>-6.033184617060457</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.33822485342115</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.89086097070255</v>
+        <v>-47.63024559033515</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.222653599319364</v>
+        <v>-1.367441376446013</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.625624412951403</v>
+        <v>-6.427812809315764</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.54916305629826</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.2336892873209</v>
+        <v>-49.96893673925552</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.308395090629829</v>
+        <v>-1.448587469459031</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.916129520706463</v>
+        <v>-6.730336651079528</v>
       </c>
     </row>
   </sheetData>
